--- a/xlsx/文化观光部2000年式_intext.xlsx
+++ b/xlsx/文化观光部2000年式_intext.xlsx
@@ -29,139 +29,139 @@
     <t>国语罗马字</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_文化观光部2000年式</t>
+    <t>政策_政策_维基百科_文化观光部2000年式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E8%AA%9E</t>
   </si>
   <si>
-    <t>朝鮮語</t>
+    <t>朝鲜语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BA%E6%96%87</t>
   </si>
   <si>
-    <t>諺文</t>
+    <t>谚文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%93%E6%B0%91%E6%AD%A3%E9%9F%B3</t>
   </si>
   <si>
-    <t>訓民正音</t>
+    <t>训民正音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%AB%BA%E6%96%87</t>
   </si>
   <si>
-    <t>古諺文</t>
+    <t>古谚文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BA%E6%96%87%E5%AD%97%E6%AF%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>諺文字母列表</t>
+    <t>谚文字母列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>朝鮮漢字</t>
+    <t>朝鲜汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9C%AD</t>
   </si>
   <si>
-    <t>鄉札</t>
+    <t>乡札</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E8%A8%A3_(%E6%9C%9D%E9%AE%AE%E8%AA%9E)</t>
   </si>
   <si>
-    <t>口訣 (朝鮮語)</t>
+    <t>口诀 (朝鲜语)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8F%E8%AE%80</t>
   </si>
   <si>
-    <t>吏讀</t>
+    <t>吏读</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E6%BC%A2%E6%B7%B7%E7%94%A8%E6%96%87</t>
   </si>
   <si>
-    <t>韓漢混用文</t>
+    <t>韩汉混用文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E8%AA%9E%E6%8B%89%E4%B8%81%E5%8C%96</t>
   </si>
   <si>
-    <t>朝鮮語拉丁化</t>
+    <t>朝鲜语拉丁化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%A7%91%E6%81%A9-%E8%B3%B4%E8%82%96%E7%88%BE%E8%A1%A8%E8%A8%98%E6%B3%95</t>
   </si>
   <si>
-    <t>馬科恩-賴肖爾表記法</t>
+    <t>马科恩-赖肖尔表记法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%AD%AF%E6%8B%BC%E9%9F%B3</t>
   </si>
   <si>
-    <t>耶魯拼音</t>
+    <t>耶鲁拼音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E8%AA%9E</t>
   </si>
   <si>
-    <t>韓語</t>
+    <t>韩语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B%E6%96%87%E5%8C%96%E8%A7%80%E5%85%89%E9%AB%94%E8%82%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>大韓民國文化觀光體育部</t>
+    <t>大韩民国文化观光体育部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%9C%9D%E9%AE%AE</t>
   </si>
   <si>
-    <t>北朝鮮</t>
+    <t>北朝鲜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%A7%91%E6%81%A9-%E8%B3%B4%E8%82%96%E7%88%BE%E5%BC%8F</t>
   </si>
   <si>
-    <t>馬科恩-賴肖爾式</t>
+    <t>马科恩-赖肖尔式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC-%E8%B3%B4%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>馬-賴系統</t>
+    <t>马-赖系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B%E6%A8%99%E6%BA%96%E8%AA%9E</t>
   </si>
   <si>
-    <t>大韓民國標準語</t>
+    <t>大韩民国标准语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E8%AA%9E</t>
   </si>
   <si>
-    <t>文化語</t>
+    <t>文化语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E8%AF%AD%E9%9F%B3%E7%B3%BB</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E9%9F%B3%E8%A6%8F%E5%89%87</t>
   </si>
   <si>
-    <t>頭音規則</t>
+    <t>头音规则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E8%AF%AD%E8%AF%AD%E6%B3%95</t>
@@ -191,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E8%AA%9E%E6%96%B9%E8%A8%80</t>
   </si>
   <si>
-    <t>朝鮮語方言</t>
+    <t>朝鲜语方言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>朝鮮半島</t>
+    <t>朝鲜半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%A0%E6%B8%85%E6%96%B9%E8%A8%80</t>
@@ -221,25 +221,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%9F%E5%B7%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>濟州語</t>
+    <t>济州语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%9C%9D%E9%AE%AE%E8%AA%9E</t>
   </si>
   <si>
-    <t>中國朝鮮語</t>
+    <t>中国朝鲜语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%BA%97%E8%AA%9E_(%E8%98%87%E8%81%AF)</t>
   </si>
   <si>
-    <t>高麗語 (蘇聯)</t>
+    <t>高丽语 (苏联)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E6%97%A5%E6%9C%9D%E9%AE%AE%E8%AA%9E</t>
   </si>
   <si>
-    <t>在日朝鮮語</t>
+    <t>在日朝鲜语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E8%AF%AD%E8%A5%BF%E9%87%8C%E5%B0%94%E8%BD%AC%E5%86%99%E7%B3%BB%E7%BB%9F</t>
@@ -251,13 +251,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BA%E6%96%87%E6%AD%A3%E5%AF%AB%E6%B3%95</t>
   </si>
   <si>
-    <t>諺文正寫法</t>
+    <t>谚文正写法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%9C%9D%E9%AE%AE%E8%AA%9E</t>
   </si>
   <si>
-    <t>古朝鮮語</t>
+    <t>古朝鲜语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E6%9C%9D%E9%B2%9C%E8%AF%AD</t>
